--- a/LF/PreTAS/Nigeria/ng_lf_pretas_3_resultat_fts_202102.xlsx
+++ b/LF/PreTAS/Nigeria/ng_lf_pretas_3_resultat_fts_202102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD888993-FC5D-44A6-8F2B-245618AAC3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E7768-EA6E-41E9-B71B-B0E4A72F5AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -460,12 +460,6 @@
     <t>. = ${d_code_id}</t>
   </si>
   <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123 upper case only with dashes)</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
     <t>ng_lf_pretas_3_resultat_fts_202102</t>
   </si>
   <si>
@@ -972,6 +966,12 @@
   </si>
   <si>
     <t>Exemple 15-123-1 (uniquement avec desnombre et tirets)</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
+  </si>
+  <si>
+    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 15-123-1 uniquement avec des nombres et des tirets)</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1493,10 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1519,7 @@
     <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -1609,17 +1609,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21"/>
@@ -1637,17 +1637,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
@@ -1662,22 +1662,22 @@
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -1692,33 +1692,33 @@
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>299</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="21"/>
@@ -1728,7 +1728,7 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1739,22 +1739,22 @@
         <v>139</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="20" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="17"/>
       <c r="H7" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>307</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2270,13 +2270,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,3731 +2477,3731 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F124" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F131" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F149" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F150" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F153" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G154" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G155" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G156" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G159" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G160" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G161" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G162" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G163" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G164" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G165" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G167" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G168" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G169" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G170" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G171" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G174" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G175" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G176" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G177" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G178" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G179" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G180" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G181" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G182" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G183" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G184" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G185" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G186" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G187" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G189" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G190" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G191" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G192" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G193" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G194" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G195" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G196" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G197" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G198" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G199" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G200" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G201" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G203" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G204" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G205" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G206" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G207" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G208" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G209" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G210" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G211" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G212" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G213" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G214" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G215" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G216" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G217" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G218" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G219" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G220" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G221" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G222" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G223" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G224" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G225" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G226" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G227" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G228" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G229" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G230" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G231" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G232" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G233" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G234" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G236" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B238" s="1">
         <v>101</v>
@@ -6213,12 +6213,12 @@
         <v>101</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B239" s="1">
         <v>102</v>
@@ -6230,12 +6230,12 @@
         <v>102</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B240" s="1">
         <v>103</v>
@@ -6247,12 +6247,12 @@
         <v>103</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B241" s="1">
         <v>104</v>
@@ -6264,12 +6264,12 @@
         <v>104</v>
       </c>
       <c r="G241" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B242" s="1">
         <v>105</v>
@@ -6281,12 +6281,12 @@
         <v>105</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B243" s="1">
         <v>106</v>
@@ -6298,12 +6298,12 @@
         <v>106</v>
       </c>
       <c r="G243" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B244" s="1">
         <v>107</v>
@@ -6315,12 +6315,12 @@
         <v>107</v>
       </c>
       <c r="G244" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B245" s="1">
         <v>108</v>
@@ -6332,12 +6332,12 @@
         <v>108</v>
       </c>
       <c r="G245" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B246" s="1">
         <v>109</v>
@@ -6349,12 +6349,12 @@
         <v>109</v>
       </c>
       <c r="G246" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B247" s="1">
         <v>110</v>
@@ -6366,12 +6366,12 @@
         <v>110</v>
       </c>
       <c r="G247" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B248" s="1">
         <v>111</v>
@@ -6383,12 +6383,12 @@
         <v>111</v>
       </c>
       <c r="G248" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B249" s="1">
         <v>112</v>
@@ -6400,12 +6400,12 @@
         <v>112</v>
       </c>
       <c r="G249" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B250" s="1">
         <v>113</v>
@@ -6417,12 +6417,12 @@
         <v>113</v>
       </c>
       <c r="G250" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B251" s="1">
         <v>114</v>
@@ -6434,12 +6434,12 @@
         <v>114</v>
       </c>
       <c r="G251" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B252" s="1">
         <v>115</v>
@@ -6451,12 +6451,12 @@
         <v>115</v>
       </c>
       <c r="G252" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B253" s="1">
         <v>116</v>
@@ -6468,12 +6468,12 @@
         <v>116</v>
       </c>
       <c r="G253" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B254" s="1">
         <v>117</v>
@@ -6485,12 +6485,12 @@
         <v>117</v>
       </c>
       <c r="G254" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B255" s="1">
         <v>118</v>
@@ -6502,12 +6502,12 @@
         <v>118</v>
       </c>
       <c r="G255" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B256" s="1">
         <v>119</v>
@@ -6519,12 +6519,12 @@
         <v>119</v>
       </c>
       <c r="G256" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B257" s="1">
         <v>120</v>
@@ -6536,12 +6536,12 @@
         <v>120</v>
       </c>
       <c r="G257" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B258" s="1">
         <v>121</v>
@@ -6553,12 +6553,12 @@
         <v>121</v>
       </c>
       <c r="G258" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B259" s="1">
         <v>122</v>
@@ -6570,12 +6570,12 @@
         <v>122</v>
       </c>
       <c r="G259" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B260" s="1">
         <v>123</v>
@@ -6587,12 +6587,12 @@
         <v>123</v>
       </c>
       <c r="G260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B261" s="1">
         <v>124</v>
@@ -6604,12 +6604,12 @@
         <v>124</v>
       </c>
       <c r="G261" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B262" s="1">
         <v>125</v>
@@ -6621,12 +6621,12 @@
         <v>125</v>
       </c>
       <c r="G262" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B263" s="1">
         <v>126</v>
@@ -6638,12 +6638,12 @@
         <v>126</v>
       </c>
       <c r="G263" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B264" s="1">
         <v>127</v>
@@ -6655,12 +6655,12 @@
         <v>127</v>
       </c>
       <c r="G264" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B265" s="1">
         <v>128</v>
@@ -6672,12 +6672,12 @@
         <v>128</v>
       </c>
       <c r="G265" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B266" s="1">
         <v>129</v>
@@ -6689,12 +6689,12 @@
         <v>129</v>
       </c>
       <c r="G266" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B267" s="1">
         <v>130</v>
@@ -6706,12 +6706,12 @@
         <v>130</v>
       </c>
       <c r="G267" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B268" s="1">
         <v>131</v>
@@ -6723,12 +6723,12 @@
         <v>131</v>
       </c>
       <c r="G268" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B269" s="1">
         <v>132</v>
@@ -6740,12 +6740,12 @@
         <v>132</v>
       </c>
       <c r="G269" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B270" s="1">
         <v>133</v>
@@ -6757,12 +6757,12 @@
         <v>133</v>
       </c>
       <c r="G270" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B271" s="1">
         <v>134</v>
@@ -6774,12 +6774,12 @@
         <v>134</v>
       </c>
       <c r="G271" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B272" s="1">
         <v>135</v>
@@ -6791,12 +6791,12 @@
         <v>135</v>
       </c>
       <c r="G272" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B273" s="1">
         <v>136</v>
@@ -6808,12 +6808,12 @@
         <v>136</v>
       </c>
       <c r="G273" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B274" s="1">
         <v>137</v>
@@ -6825,12 +6825,12 @@
         <v>137</v>
       </c>
       <c r="G274" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B275" s="1">
         <v>138</v>
@@ -6842,12 +6842,12 @@
         <v>138</v>
       </c>
       <c r="G275" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B276" s="1">
         <v>139</v>
@@ -6859,12 +6859,12 @@
         <v>139</v>
       </c>
       <c r="G276" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B277" s="1">
         <v>140</v>
@@ -6876,12 +6876,12 @@
         <v>140</v>
       </c>
       <c r="G277" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B278" s="1">
         <v>141</v>
@@ -6893,12 +6893,12 @@
         <v>141</v>
       </c>
       <c r="G278" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B279" s="1">
         <v>142</v>
@@ -6910,12 +6910,12 @@
         <v>142</v>
       </c>
       <c r="G279" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B280" s="1">
         <v>143</v>
@@ -6927,12 +6927,12 @@
         <v>143</v>
       </c>
       <c r="G280" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B281" s="1">
         <v>144</v>
@@ -6944,12 +6944,12 @@
         <v>144</v>
       </c>
       <c r="G281" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B282" s="1">
         <v>145</v>
@@ -6961,12 +6961,12 @@
         <v>145</v>
       </c>
       <c r="G282" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B283" s="1">
         <v>146</v>
@@ -6978,12 +6978,12 @@
         <v>146</v>
       </c>
       <c r="G283" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>147</v>
@@ -6995,12 +6995,12 @@
         <v>147</v>
       </c>
       <c r="G284" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B285" s="1">
         <v>148</v>
@@ -7012,12 +7012,12 @@
         <v>148</v>
       </c>
       <c r="G285" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B286" s="1">
         <v>149</v>
@@ -7029,12 +7029,12 @@
         <v>149</v>
       </c>
       <c r="G286" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B287" s="1">
         <v>150</v>
@@ -7046,12 +7046,12 @@
         <v>150</v>
       </c>
       <c r="G287" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B288" s="1">
         <v>151</v>
@@ -7063,12 +7063,12 @@
         <v>151</v>
       </c>
       <c r="G288" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B289" s="1">
         <v>152</v>
@@ -7080,12 +7080,12 @@
         <v>152</v>
       </c>
       <c r="G289" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B290" s="1">
         <v>153</v>
@@ -7097,12 +7097,12 @@
         <v>153</v>
       </c>
       <c r="G290" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B291" s="1">
         <v>154</v>
@@ -7114,12 +7114,12 @@
         <v>154</v>
       </c>
       <c r="G291" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B292" s="1">
         <v>155</v>
@@ -7131,12 +7131,12 @@
         <v>155</v>
       </c>
       <c r="G292" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B293" s="1">
         <v>156</v>
@@ -7148,12 +7148,12 @@
         <v>156</v>
       </c>
       <c r="G293" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B294" s="1">
         <v>157</v>
@@ -7165,12 +7165,12 @@
         <v>157</v>
       </c>
       <c r="G294" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B295" s="1">
         <v>158</v>
@@ -7182,12 +7182,12 @@
         <v>158</v>
       </c>
       <c r="G295" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B296" s="1">
         <v>159</v>
@@ -7199,12 +7199,12 @@
         <v>159</v>
       </c>
       <c r="G296" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B297" s="1">
         <v>160</v>
@@ -7216,12 +7216,12 @@
         <v>160</v>
       </c>
       <c r="G297" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B298" s="1">
         <v>161</v>
@@ -7233,12 +7233,12 @@
         <v>161</v>
       </c>
       <c r="G298" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B299" s="1">
         <v>162</v>
@@ -7250,12 +7250,12 @@
         <v>162</v>
       </c>
       <c r="G299" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B300" s="1">
         <v>163</v>
@@ -7267,12 +7267,12 @@
         <v>163</v>
       </c>
       <c r="G300" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B301" s="1">
         <v>164</v>
@@ -7284,12 +7284,12 @@
         <v>164</v>
       </c>
       <c r="G301" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B302" s="1">
         <v>165</v>
@@ -7301,12 +7301,12 @@
         <v>165</v>
       </c>
       <c r="G302" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B303" s="1">
         <v>166</v>
@@ -7318,12 +7318,12 @@
         <v>166</v>
       </c>
       <c r="G303" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B304" s="1">
         <v>167</v>
@@ -7335,12 +7335,12 @@
         <v>167</v>
       </c>
       <c r="G304" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B305" s="1">
         <v>168</v>
@@ -7352,12 +7352,12 @@
         <v>168</v>
       </c>
       <c r="G305" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B306" s="1">
         <v>169</v>
@@ -7369,12 +7369,12 @@
         <v>169</v>
       </c>
       <c r="G306" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B307" s="1">
         <v>170</v>
@@ -7386,12 +7386,12 @@
         <v>170</v>
       </c>
       <c r="G307" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B308" s="1">
         <v>171</v>
@@ -7403,12 +7403,12 @@
         <v>171</v>
       </c>
       <c r="G308" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B309" s="1">
         <v>172</v>
@@ -7420,12 +7420,12 @@
         <v>172</v>
       </c>
       <c r="G309" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B310" s="1">
         <v>173</v>
@@ -7437,12 +7437,12 @@
         <v>173</v>
       </c>
       <c r="G310" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B311" s="1">
         <v>174</v>
@@ -7454,12 +7454,12 @@
         <v>174</v>
       </c>
       <c r="G311" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B312" s="1">
         <v>175</v>
@@ -7471,12 +7471,12 @@
         <v>175</v>
       </c>
       <c r="G312" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B313" s="1">
         <v>176</v>
@@ -7488,12 +7488,12 @@
         <v>176</v>
       </c>
       <c r="G313" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B314" s="1">
         <v>177</v>
@@ -7505,12 +7505,12 @@
         <v>177</v>
       </c>
       <c r="G314" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B315" s="1">
         <v>178</v>
@@ -7522,12 +7522,12 @@
         <v>178</v>
       </c>
       <c r="G315" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B316" s="1">
         <v>179</v>
@@ -7539,12 +7539,12 @@
         <v>179</v>
       </c>
       <c r="G316" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B317" s="1">
         <v>180</v>
@@ -7556,12 +7556,12 @@
         <v>180</v>
       </c>
       <c r="G317" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B318" s="1">
         <v>181</v>
@@ -7573,12 +7573,12 @@
         <v>181</v>
       </c>
       <c r="G318" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B319" s="1">
         <v>182</v>
@@ -7590,12 +7590,12 @@
         <v>182</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B320" s="1">
         <v>183</v>
@@ -7607,12 +7607,12 @@
         <v>183</v>
       </c>
       <c r="G320" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B321" s="1">
         <v>184</v>
@@ -7624,7 +7624,7 @@
         <v>184</v>
       </c>
       <c r="G321" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -7671,21 +7671,21 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>20210216</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>

--- a/LF/PreTAS/Nigeria/ng_lf_pretas_3_resultat_fts_202102.xlsx
+++ b/LF/PreTAS/Nigeria/ng_lf_pretas_3_resultat_fts_202102.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E7768-EA6E-41E9-B71B-B0E4A72F5AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660328C-0798-4821-B11F-5079CCB8F38B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="307">
   <si>
     <t>form_title</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Veuillez entrer le numéro de lot du kit FTS utilisé pour le deuxième test</t>
   </si>
   <si>
-    <t>d_need_third_test</t>
-  </si>
-  <si>
     <t>${d_result2}</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le résultat du deuxième test du participant.</t>
   </si>
   <si>
-    <t>Le second résultat du test de ce participant est ${d_display_result2}. Ce résultat nécessite un troisième test. Continuez ce questionnaire pour entrer le résultat du troisième du test du participant.</t>
-  </si>
-  <si>
     <t>Entrer l'identifiant de l'enregistreur</t>
   </si>
   <si>
@@ -434,23 +428,6 @@
     <t>d_cluster_id</t>
   </si>
   <si>
-    <t>${d_final_result} = 'Positif'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result1} = 'Invalide' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result1} = 'Positif' or ${d_result1} = 'Invalide' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result2} = 'Invalide' </t>
-  </si>
-  <si>
-    <t>(${d_result1} = 'Positif' and ${d_result2} = 'Négatif')
-or (${d_result1} = 'Positif' and ${d_result2} = 'Invalide')
-or (${d_result1} = 'Invalide' and ${d_result2} = 'Positif')</t>
-  </si>
-  <si>
     <t>d_code_id</t>
   </si>
   <si>
@@ -466,9 +443,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>3. Nigeria - Pre TAS FL FTS Results</t>
-  </si>
-  <si>
     <t>state_list</t>
   </si>
   <si>
@@ -911,9 +885,6 @@
   </si>
   <si>
     <t>select_one site_code</t>
-  </si>
-  <si>
-    <t>Enter Site ID</t>
   </si>
   <si>
     <t>Entrer le code du site</t>
@@ -972,6 +943,24 @@
   </si>
   <si>
     <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 15-123-1 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>${d_final_result} = 'Positive'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result1} = 'Invalid' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result1} = 'Positive' or ${d_result1} = 'Invalid' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result2} = 'Invalid' </t>
+  </si>
+  <si>
+    <t>3. Nigeria - Pre TAS LF FTS Results Form</t>
+  </si>
+  <si>
+    <t>Select the Site ID</t>
   </si>
 </sst>
 </file>
@@ -1490,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1572,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>23</v>
@@ -1593,10 +1582,10 @@
         <v>96</v>
       </c>
       <c r="I2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="21"/>
@@ -1609,17 +1598,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21"/>
@@ -1637,17 +1626,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
@@ -1662,22 +1651,22 @@
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -1692,33 +1681,33 @@
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="21"/>
@@ -1728,7 +1717,7 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1736,25 +1725,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="17"/>
       <c r="H7" s="31" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -1770,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>42</v>
@@ -1782,13 +1771,13 @@
       <c r="F8" s="27"/>
       <c r="G8" s="17"/>
       <c r="H8" s="34" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -1844,7 +1833,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1879,7 +1868,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="29"/>
       <c r="K11" s="34" t="s">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="26" t="s">
@@ -1959,7 +1948,7 @@
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="16"/>
@@ -1967,7 +1956,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="29"/>
       <c r="K14" s="34" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="26"/>
@@ -1995,7 +1984,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="29"/>
       <c r="K15" s="34" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="26" t="s">
@@ -2022,14 +2011,14 @@
         <v>69</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="34" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L16" s="36"/>
       <c r="M16" s="26" t="s">
@@ -2047,13 +2036,13 @@
         <v>53</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="36"/>
@@ -2061,7 +2050,7 @@
       <c r="I17" s="38"/>
       <c r="J17" s="39"/>
       <c r="K17" s="34" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="L17" s="36"/>
       <c r="M17" s="26" t="s">
@@ -2079,13 +2068,13 @@
         <v>55</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="36"/>
@@ -2093,7 +2082,7 @@
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
       <c r="K18" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="26" t="s">
@@ -2119,117 +2108,87 @@
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
       <c r="K19" s="34" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2244,8 +2203,8 @@
   <dimension ref="A1:G323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD323"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2270,13 +2229,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,7 +2299,7 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>71</v>
@@ -2354,7 +2313,7 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>72</v>
@@ -2368,13 +2327,13 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,3731 +2436,3731 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
         <v>146</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
         <v>146</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F70" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F86" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F94" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F95" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F103" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F104" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F105" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F106" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F107" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F116" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F117" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F118" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F120" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F141" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F147" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F149" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F151" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F153" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G154" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G155" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G156" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G157" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G158" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G160" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G161" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G162" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G163" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G164" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G165" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G166" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G167" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G168" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G169" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G170" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G171" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G172" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G173" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G174" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G175" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G176" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G177" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G178" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G179" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G180" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G181" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G182" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G183" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G184" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G185" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G186" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G187" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G188" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G189" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G190" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G191" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G192" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G193" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G194" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G195" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G196" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G197" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G198" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G199" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G200" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G201" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G202" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G203" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G204" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G205" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G206" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G207" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G208" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G209" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G210" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G211" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G212" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G213" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G214" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G215" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G216" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G217" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G218" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G219" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G220" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G221" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G222" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G223" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G224" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G225" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G226" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G227" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G228" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G229" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G230" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G231" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G232" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G233" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G234" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G235" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G236" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G237" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B238" s="1">
         <v>101</v>
@@ -6213,12 +6172,12 @@
         <v>101</v>
       </c>
       <c r="G238" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B239" s="1">
         <v>102</v>
@@ -6230,12 +6189,12 @@
         <v>102</v>
       </c>
       <c r="G239" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B240" s="1">
         <v>103</v>
@@ -6247,12 +6206,12 @@
         <v>103</v>
       </c>
       <c r="G240" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B241" s="1">
         <v>104</v>
@@ -6264,12 +6223,12 @@
         <v>104</v>
       </c>
       <c r="G241" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B242" s="1">
         <v>105</v>
@@ -6281,12 +6240,12 @@
         <v>105</v>
       </c>
       <c r="G242" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B243" s="1">
         <v>106</v>
@@ -6298,12 +6257,12 @@
         <v>106</v>
       </c>
       <c r="G243" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B244" s="1">
         <v>107</v>
@@ -6315,12 +6274,12 @@
         <v>107</v>
       </c>
       <c r="G244" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B245" s="1">
         <v>108</v>
@@ -6332,12 +6291,12 @@
         <v>108</v>
       </c>
       <c r="G245" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B246" s="1">
         <v>109</v>
@@ -6349,12 +6308,12 @@
         <v>109</v>
       </c>
       <c r="G246" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B247" s="1">
         <v>110</v>
@@ -6366,12 +6325,12 @@
         <v>110</v>
       </c>
       <c r="G247" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B248" s="1">
         <v>111</v>
@@ -6383,12 +6342,12 @@
         <v>111</v>
       </c>
       <c r="G248" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B249" s="1">
         <v>112</v>
@@ -6400,12 +6359,12 @@
         <v>112</v>
       </c>
       <c r="G249" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B250" s="1">
         <v>113</v>
@@ -6417,12 +6376,12 @@
         <v>113</v>
       </c>
       <c r="G250" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B251" s="1">
         <v>114</v>
@@ -6434,12 +6393,12 @@
         <v>114</v>
       </c>
       <c r="G251" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B252" s="1">
         <v>115</v>
@@ -6451,12 +6410,12 @@
         <v>115</v>
       </c>
       <c r="G252" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B253" s="1">
         <v>116</v>
@@ -6468,12 +6427,12 @@
         <v>116</v>
       </c>
       <c r="G253" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B254" s="1">
         <v>117</v>
@@ -6485,12 +6444,12 @@
         <v>117</v>
       </c>
       <c r="G254" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B255" s="1">
         <v>118</v>
@@ -6502,12 +6461,12 @@
         <v>118</v>
       </c>
       <c r="G255" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B256" s="1">
         <v>119</v>
@@ -6519,12 +6478,12 @@
         <v>119</v>
       </c>
       <c r="G256" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B257" s="1">
         <v>120</v>
@@ -6536,12 +6495,12 @@
         <v>120</v>
       </c>
       <c r="G257" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B258" s="1">
         <v>121</v>
@@ -6553,12 +6512,12 @@
         <v>121</v>
       </c>
       <c r="G258" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B259" s="1">
         <v>122</v>
@@ -6570,12 +6529,12 @@
         <v>122</v>
       </c>
       <c r="G259" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B260" s="1">
         <v>123</v>
@@ -6587,12 +6546,12 @@
         <v>123</v>
       </c>
       <c r="G260" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B261" s="1">
         <v>124</v>
@@ -6604,12 +6563,12 @@
         <v>124</v>
       </c>
       <c r="G261" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B262" s="1">
         <v>125</v>
@@ -6621,12 +6580,12 @@
         <v>125</v>
       </c>
       <c r="G262" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B263" s="1">
         <v>126</v>
@@ -6638,12 +6597,12 @@
         <v>126</v>
       </c>
       <c r="G263" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B264" s="1">
         <v>127</v>
@@ -6655,12 +6614,12 @@
         <v>127</v>
       </c>
       <c r="G264" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B265" s="1">
         <v>128</v>
@@ -6672,12 +6631,12 @@
         <v>128</v>
       </c>
       <c r="G265" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B266" s="1">
         <v>129</v>
@@ -6689,12 +6648,12 @@
         <v>129</v>
       </c>
       <c r="G266" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B267" s="1">
         <v>130</v>
@@ -6706,12 +6665,12 @@
         <v>130</v>
       </c>
       <c r="G267" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B268" s="1">
         <v>131</v>
@@ -6723,12 +6682,12 @@
         <v>131</v>
       </c>
       <c r="G268" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B269" s="1">
         <v>132</v>
@@ -6740,12 +6699,12 @@
         <v>132</v>
       </c>
       <c r="G269" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B270" s="1">
         <v>133</v>
@@ -6757,12 +6716,12 @@
         <v>133</v>
       </c>
       <c r="G270" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B271" s="1">
         <v>134</v>
@@ -6774,12 +6733,12 @@
         <v>134</v>
       </c>
       <c r="G271" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B272" s="1">
         <v>135</v>
@@ -6791,12 +6750,12 @@
         <v>135</v>
       </c>
       <c r="G272" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B273" s="1">
         <v>136</v>
@@ -6808,12 +6767,12 @@
         <v>136</v>
       </c>
       <c r="G273" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B274" s="1">
         <v>137</v>
@@ -6825,12 +6784,12 @@
         <v>137</v>
       </c>
       <c r="G274" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B275" s="1">
         <v>138</v>
@@ -6842,12 +6801,12 @@
         <v>138</v>
       </c>
       <c r="G275" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1">
         <v>139</v>
@@ -6859,12 +6818,12 @@
         <v>139</v>
       </c>
       <c r="G276" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B277" s="1">
         <v>140</v>
@@ -6876,12 +6835,12 @@
         <v>140</v>
       </c>
       <c r="G277" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B278" s="1">
         <v>141</v>
@@ -6893,12 +6852,12 @@
         <v>141</v>
       </c>
       <c r="G278" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B279" s="1">
         <v>142</v>
@@ -6910,12 +6869,12 @@
         <v>142</v>
       </c>
       <c r="G279" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B280" s="1">
         <v>143</v>
@@ -6927,12 +6886,12 @@
         <v>143</v>
       </c>
       <c r="G280" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B281" s="1">
         <v>144</v>
@@ -6944,12 +6903,12 @@
         <v>144</v>
       </c>
       <c r="G281" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B282" s="1">
         <v>145</v>
@@ -6961,12 +6920,12 @@
         <v>145</v>
       </c>
       <c r="G282" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B283" s="1">
         <v>146</v>
@@ -6978,12 +6937,12 @@
         <v>146</v>
       </c>
       <c r="G283" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B284" s="1">
         <v>147</v>
@@ -6995,12 +6954,12 @@
         <v>147</v>
       </c>
       <c r="G284" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B285" s="1">
         <v>148</v>
@@ -7012,12 +6971,12 @@
         <v>148</v>
       </c>
       <c r="G285" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B286" s="1">
         <v>149</v>
@@ -7029,12 +6988,12 @@
         <v>149</v>
       </c>
       <c r="G286" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B287" s="1">
         <v>150</v>
@@ -7046,12 +7005,12 @@
         <v>150</v>
       </c>
       <c r="G287" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B288" s="1">
         <v>151</v>
@@ -7063,12 +7022,12 @@
         <v>151</v>
       </c>
       <c r="G288" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B289" s="1">
         <v>152</v>
@@ -7080,12 +7039,12 @@
         <v>152</v>
       </c>
       <c r="G289" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B290" s="1">
         <v>153</v>
@@ -7097,12 +7056,12 @@
         <v>153</v>
       </c>
       <c r="G290" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B291" s="1">
         <v>154</v>
@@ -7114,12 +7073,12 @@
         <v>154</v>
       </c>
       <c r="G291" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B292" s="1">
         <v>155</v>
@@ -7131,12 +7090,12 @@
         <v>155</v>
       </c>
       <c r="G292" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B293" s="1">
         <v>156</v>
@@ -7148,12 +7107,12 @@
         <v>156</v>
       </c>
       <c r="G293" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B294" s="1">
         <v>157</v>
@@ -7165,12 +7124,12 @@
         <v>157</v>
       </c>
       <c r="G294" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B295" s="1">
         <v>158</v>
@@ -7182,12 +7141,12 @@
         <v>158</v>
       </c>
       <c r="G295" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B296" s="1">
         <v>159</v>
@@ -7199,12 +7158,12 @@
         <v>159</v>
       </c>
       <c r="G296" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B297" s="1">
         <v>160</v>
@@ -7216,12 +7175,12 @@
         <v>160</v>
       </c>
       <c r="G297" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B298" s="1">
         <v>161</v>
@@ -7233,12 +7192,12 @@
         <v>161</v>
       </c>
       <c r="G298" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B299" s="1">
         <v>162</v>
@@ -7250,12 +7209,12 @@
         <v>162</v>
       </c>
       <c r="G299" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B300" s="1">
         <v>163</v>
@@ -7267,12 +7226,12 @@
         <v>163</v>
       </c>
       <c r="G300" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B301" s="1">
         <v>164</v>
@@ -7284,12 +7243,12 @@
         <v>164</v>
       </c>
       <c r="G301" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B302" s="1">
         <v>165</v>
@@ -7301,12 +7260,12 @@
         <v>165</v>
       </c>
       <c r="G302" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B303" s="1">
         <v>166</v>
@@ -7318,12 +7277,12 @@
         <v>166</v>
       </c>
       <c r="G303" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B304" s="1">
         <v>167</v>
@@ -7335,12 +7294,12 @@
         <v>167</v>
       </c>
       <c r="G304" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B305" s="1">
         <v>168</v>
@@ -7352,12 +7311,12 @@
         <v>168</v>
       </c>
       <c r="G305" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B306" s="1">
         <v>169</v>
@@ -7369,12 +7328,12 @@
         <v>169</v>
       </c>
       <c r="G306" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B307" s="1">
         <v>170</v>
@@ -7386,12 +7345,12 @@
         <v>170</v>
       </c>
       <c r="G307" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B308" s="1">
         <v>171</v>
@@ -7403,12 +7362,12 @@
         <v>171</v>
       </c>
       <c r="G308" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B309" s="1">
         <v>172</v>
@@ -7420,12 +7379,12 @@
         <v>172</v>
       </c>
       <c r="G309" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B310" s="1">
         <v>173</v>
@@ -7437,12 +7396,12 @@
         <v>173</v>
       </c>
       <c r="G310" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B311" s="1">
         <v>174</v>
@@ -7454,12 +7413,12 @@
         <v>174</v>
       </c>
       <c r="G311" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B312" s="1">
         <v>175</v>
@@ -7471,12 +7430,12 @@
         <v>175</v>
       </c>
       <c r="G312" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B313" s="1">
         <v>176</v>
@@ -7488,12 +7447,12 @@
         <v>176</v>
       </c>
       <c r="G313" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B314" s="1">
         <v>177</v>
@@ -7505,12 +7464,12 @@
         <v>177</v>
       </c>
       <c r="G314" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B315" s="1">
         <v>178</v>
@@ -7522,12 +7481,12 @@
         <v>178</v>
       </c>
       <c r="G315" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B316" s="1">
         <v>179</v>
@@ -7539,12 +7498,12 @@
         <v>179</v>
       </c>
       <c r="G316" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B317" s="1">
         <v>180</v>
@@ -7556,12 +7515,12 @@
         <v>180</v>
       </c>
       <c r="G317" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B318" s="1">
         <v>181</v>
@@ -7573,12 +7532,12 @@
         <v>181</v>
       </c>
       <c r="G318" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B319" s="1">
         <v>182</v>
@@ -7590,12 +7549,12 @@
         <v>182</v>
       </c>
       <c r="G319" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B320" s="1">
         <v>183</v>
@@ -7607,12 +7566,12 @@
         <v>183</v>
       </c>
       <c r="G320" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B321" s="1">
         <v>184</v>
@@ -7624,7 +7583,7 @@
         <v>184</v>
       </c>
       <c r="G321" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -7646,7 +7605,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7671,21 +7630,21 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>20210216</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
